--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H2">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I2">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J2">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>0.6473711309399999</v>
+        <v>0.09113775002222223</v>
       </c>
       <c r="R2">
-        <v>5.826340178459999</v>
+        <v>0.8202397502</v>
       </c>
       <c r="S2">
-        <v>2.809561799665824E-05</v>
+        <v>5.500841770541663E-06</v>
       </c>
       <c r="T2">
-        <v>2.942033984813722E-05</v>
+        <v>5.59701950039345E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H3">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I3">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J3">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>48.11809053836465</v>
+        <v>0.68229757908</v>
       </c>
       <c r="R3">
-        <v>433.0628148452819</v>
+        <v>6.14067821172</v>
       </c>
       <c r="S3">
-        <v>0.002088303642041473</v>
+        <v>4.118173887360142E-05</v>
       </c>
       <c r="T3">
-        <v>0.002186768159442888</v>
+        <v>4.190176797486061E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H4">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I4">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J4">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>0.2179072334846666</v>
+        <v>72.622372771416</v>
       </c>
       <c r="R4">
-        <v>1.307443400908</v>
+        <v>653.6013549427439</v>
       </c>
       <c r="S4">
-        <v>9.457076625897975E-06</v>
+        <v>0.004383300899127375</v>
       </c>
       <c r="T4">
-        <v>6.6019882136516E-06</v>
+        <v>0.004459939338719113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6718046666666666</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H5">
-        <v>2.015414</v>
+        <v>2.124148</v>
       </c>
       <c r="I5">
-        <v>0.006062562609515538</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J5">
-        <v>0.006345114347523019</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>90.70845113062111</v>
+        <v>0.5998590411753333</v>
       </c>
       <c r="R5">
-        <v>816.3760601755899</v>
+        <v>3.599154247052</v>
       </c>
       <c r="S5">
-        <v>0.003936706272851509</v>
+        <v>3.620595932343916E-05</v>
       </c>
       <c r="T5">
-        <v>0.004122323860018342</v>
+        <v>2.455932731955759E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.16235166666667</v>
+        <v>0.7080493333333333</v>
       </c>
       <c r="H6">
-        <v>129.487055</v>
+        <v>2.124148</v>
       </c>
       <c r="I6">
-        <v>0.3895097374828606</v>
+        <v>0.008172603973273591</v>
       </c>
       <c r="J6">
-        <v>0.4076632247761514</v>
+        <v>0.008303215621510202</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>41.59253693655</v>
+        <v>61.40774364819466</v>
       </c>
       <c r="R6">
-        <v>374.33283242895</v>
+        <v>552.6696928337519</v>
       </c>
       <c r="S6">
-        <v>0.001805097529734474</v>
+        <v>0.003706414534178634</v>
       </c>
       <c r="T6">
-        <v>0.00189020874323312</v>
+        <v>0.003771218167996278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>129.487055</v>
       </c>
       <c r="I7">
-        <v>0.3895097374828606</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J7">
-        <v>0.4076632247761514</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>3091.508660769551</v>
+        <v>5.555714032027778</v>
       </c>
       <c r="R7">
-        <v>27823.57794692597</v>
+        <v>50.00142628824999</v>
       </c>
       <c r="S7">
-        <v>0.1341700953519845</v>
+        <v>0.0003353287063276314</v>
       </c>
       <c r="T7">
-        <v>0.1404962796398308</v>
+        <v>0.0003411916551405642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>129.487055</v>
       </c>
       <c r="I8">
-        <v>0.3895097374828606</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J8">
-        <v>0.4076632247761514</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>14.00018354895167</v>
+        <v>41.59253693655</v>
       </c>
       <c r="R8">
-        <v>84.00110129371001</v>
+        <v>374.33283242895</v>
       </c>
       <c r="S8">
-        <v>0.0006076017141871921</v>
+        <v>0.002510419277056808</v>
       </c>
       <c r="T8">
-        <v>0.0004241669507756007</v>
+        <v>0.002554311909696506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>129.487055</v>
       </c>
       <c r="I9">
-        <v>0.3895097374828606</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J9">
-        <v>0.4076632247761514</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>5827.86970841502</v>
+        <v>4427.02541314581</v>
       </c>
       <c r="R9">
-        <v>52450.82737573518</v>
+        <v>39843.22871831228</v>
       </c>
       <c r="S9">
-        <v>0.2529269428869544</v>
+        <v>0.2672039446436199</v>
       </c>
       <c r="T9">
-        <v>0.2648525694423118</v>
+        <v>0.2718757875860747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.686232</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H10">
-        <v>65.058696</v>
+        <v>129.487055</v>
       </c>
       <c r="I10">
-        <v>0.1957029264426257</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J10">
-        <v>0.2048238552578966</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>20.89750374216</v>
+        <v>36.56712275082417</v>
       </c>
       <c r="R10">
-        <v>188.07753367944</v>
+        <v>219.402736504945</v>
       </c>
       <c r="S10">
-        <v>0.0009069423305468345</v>
+        <v>0.002207098114746209</v>
       </c>
       <c r="T10">
-        <v>0.0009497050960232715</v>
+        <v>0.001497124949575338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.686232</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H11">
-        <v>65.058696</v>
+        <v>129.487055</v>
       </c>
       <c r="I11">
-        <v>0.1957029264426257</v>
+        <v>0.4981980634967507</v>
       </c>
       <c r="J11">
-        <v>0.2048238552578966</v>
+        <v>0.5061600876489541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>1553.278991034072</v>
+        <v>3743.386938763063</v>
       </c>
       <c r="R11">
-        <v>13979.51091930665</v>
+        <v>33690.48244886757</v>
       </c>
       <c r="S11">
-        <v>0.06741161458800475</v>
+        <v>0.2259412727550002</v>
       </c>
       <c r="T11">
-        <v>0.07059010451831454</v>
+        <v>0.2298916715484671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.686232</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H12">
-        <v>65.058696</v>
+        <v>61.436119</v>
       </c>
       <c r="I12">
-        <v>0.1957029264426257</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J12">
-        <v>0.2048238552578966</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>7.034167897752001</v>
+        <v>2.635950816872222</v>
       </c>
       <c r="R12">
-        <v>42.205007386512</v>
+        <v>23.72355735185</v>
       </c>
       <c r="S12">
-        <v>0.0003052797456269542</v>
+        <v>0.0001590992574976735</v>
       </c>
       <c r="T12">
-        <v>0.0002131158879453762</v>
+        <v>0.0001618809781952541</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.686232</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H13">
-        <v>65.058696</v>
+        <v>61.436119</v>
       </c>
       <c r="I13">
-        <v>0.1957029264426257</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J13">
-        <v>0.2048238552578966</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>2928.11975442164</v>
+        <v>19.73389578399</v>
       </c>
       <c r="R13">
-        <v>26353.07778979476</v>
+        <v>177.60506205591</v>
       </c>
       <c r="S13">
-        <v>0.1270790897784472</v>
+        <v>0.001191087537245758</v>
       </c>
       <c r="T13">
-        <v>0.1330709297556134</v>
+        <v>0.001211912730946208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.8035735</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H14">
-        <v>29.607147</v>
+        <v>61.436119</v>
       </c>
       <c r="I14">
-        <v>0.1335917948197964</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J14">
-        <v>0.09321198186522625</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>14.265167531805</v>
+        <v>2100.435909196098</v>
       </c>
       <c r="R14">
-        <v>85.59100519082999</v>
+        <v>18903.92318276488</v>
       </c>
       <c r="S14">
-        <v>0.0006191019007133816</v>
+        <v>0.1267769456985089</v>
       </c>
       <c r="T14">
-        <v>0.0004321952346633279</v>
+        <v>0.1289935371482254</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.8035735</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H15">
-        <v>29.607147</v>
+        <v>61.436119</v>
       </c>
       <c r="I15">
-        <v>0.1335917948197964</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J15">
-        <v>0.09321198186522625</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>1060.307743169893</v>
+        <v>17.34954976624683</v>
       </c>
       <c r="R15">
-        <v>6361.846459019361</v>
+        <v>104.097298597481</v>
       </c>
       <c r="S15">
-        <v>0.04601688256895899</v>
+        <v>0.001047174502673056</v>
       </c>
       <c r="T15">
-        <v>0.03212440042172229</v>
+        <v>0.0007103223295948732</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.8035735</v>
+        <v>20.47870633333333</v>
       </c>
       <c r="H16">
-        <v>29.607147</v>
+        <v>61.436119</v>
       </c>
       <c r="I16">
-        <v>0.1335917948197964</v>
+        <v>0.2363738638936219</v>
       </c>
       <c r="J16">
-        <v>0.09321198186522625</v>
+        <v>0.2401515068656985</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>4.8017019040335</v>
+        <v>1776.0784306423</v>
       </c>
       <c r="R16">
-        <v>19.206807616134</v>
+        <v>15984.7058757807</v>
       </c>
       <c r="S16">
-        <v>0.0002083917184160863</v>
+        <v>0.1071995568976965</v>
       </c>
       <c r="T16">
-        <v>9.698555013205739E-05</v>
+        <v>0.1090738536787367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.8035735</v>
+        <v>4.0884615</v>
       </c>
       <c r="H17">
-        <v>29.607147</v>
+        <v>8.176923</v>
       </c>
       <c r="I17">
-        <v>0.1335917948197964</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J17">
-        <v>0.09321198186522625</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>135.0220616666667</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N17">
-        <v>405.066185</v>
+        <v>0.38615</v>
       </c>
       <c r="O17">
-        <v>0.6493469059886695</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P17">
-        <v>0.6496847234325412</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q17">
-        <v>1998.809014004032</v>
+        <v>0.526253136075</v>
       </c>
       <c r="R17">
-        <v>11992.85408402419</v>
+        <v>3.15751881645</v>
       </c>
       <c r="S17">
-        <v>0.08674741863170798</v>
+        <v>3.176329492547331E-05</v>
       </c>
       <c r="T17">
-        <v>0.06055840065870857</v>
+        <v>2.154576681296017E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.48803466666666</v>
+        <v>4.0884615</v>
       </c>
       <c r="H18">
-        <v>91.46410399999999</v>
+        <v>8.176923</v>
       </c>
       <c r="I18">
-        <v>0.2751329786452017</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J18">
-        <v>0.2879558237532028</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9636299999999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N18">
         <v>2.89089</v>
       </c>
       <c r="O18">
-        <v>0.004634280881909668</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P18">
-        <v>0.004636691828827674</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q18">
-        <v>29.37918484583999</v>
+        <v>3.939764155245001</v>
       </c>
       <c r="R18">
-        <v>264.4126636125599</v>
+        <v>23.63858493147</v>
       </c>
       <c r="S18">
-        <v>0.001275043502918319</v>
+        <v>0.0002377940998759589</v>
       </c>
       <c r="T18">
-        <v>0.001335162415059817</v>
+        <v>0.0001613011571200788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.48803466666666</v>
+        <v>4.0884615</v>
       </c>
       <c r="H19">
-        <v>91.46410399999999</v>
+        <v>8.176923</v>
       </c>
       <c r="I19">
-        <v>0.2751329786452017</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J19">
-        <v>0.2879558237532028</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.62512099999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N19">
-        <v>214.875363</v>
+        <v>307.700478</v>
       </c>
       <c r="O19">
-        <v>0.3444588990740914</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P19">
-        <v>0.344638101013349</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q19">
-        <v>2183.709172052194</v>
+        <v>419.340519278199</v>
       </c>
       <c r="R19">
-        <v>19653.38254846975</v>
+        <v>2516.043115669194</v>
       </c>
       <c r="S19">
-        <v>0.09477200292310167</v>
+        <v>0.02531032249494525</v>
       </c>
       <c r="T19">
-        <v>0.09924054827403843</v>
+        <v>0.01716856855425192</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.48803466666666</v>
+        <v>4.0884615</v>
       </c>
       <c r="H20">
-        <v>91.46410399999999</v>
+        <v>8.176923</v>
       </c>
       <c r="I20">
-        <v>0.2751329786452017</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J20">
-        <v>0.2879558237532028</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.324361</v>
+        <v>0.8471995</v>
       </c>
       <c r="N20">
-        <v>0.648722</v>
+        <v>1.694399</v>
       </c>
       <c r="O20">
-        <v>0.001559914055329433</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P20">
-        <v>0.001040483725282092</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q20">
-        <v>9.889129412514666</v>
+        <v>3.46374253856925</v>
       </c>
       <c r="R20">
-        <v>59.334776475088</v>
+        <v>13.854970154277</v>
       </c>
       <c r="S20">
-        <v>0.000429183800473303</v>
+        <v>0.0002090626511398176</v>
       </c>
       <c r="T20">
-        <v>0.000299613348215406</v>
+        <v>9.454130711410823E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.48803466666666</v>
+        <v>4.0884615</v>
       </c>
       <c r="H21">
-        <v>91.46410399999999</v>
+        <v>8.176923</v>
       </c>
       <c r="I21">
-        <v>0.2751329786452017</v>
+        <v>0.04719074664214938</v>
       </c>
       <c r="J21">
-        <v>0.2879558237532028</v>
+        <v>0.0319632882405021</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>135.0220616666667</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N21">
-        <v>405.066185</v>
+        <v>260.184174</v>
       </c>
       <c r="O21">
-        <v>0.6493469059886695</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P21">
-        <v>0.6496847234325412</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q21">
-        <v>4116.557296858137</v>
+        <v>354.584326102767</v>
       </c>
       <c r="R21">
-        <v>37049.01567172324</v>
+        <v>2127.505956616602</v>
       </c>
       <c r="S21">
-        <v>0.1786567484187084</v>
+        <v>0.02140180410126288</v>
       </c>
       <c r="T21">
-        <v>0.1870804997158892</v>
+        <v>0.01451733145520304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.199363</v>
+      </c>
+      <c r="H22">
+        <v>54.598089</v>
+      </c>
+      <c r="I22">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J22">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.38615</v>
+      </c>
+      <c r="O22">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P22">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q22">
+        <v>2.342561340816667</v>
+      </c>
+      <c r="R22">
+        <v>21.08305206735</v>
+      </c>
+      <c r="S22">
+        <v>0.0001413910182166927</v>
+      </c>
+      <c r="T22">
+        <v>0.0001438631247997866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.199363</v>
+      </c>
+      <c r="H23">
+        <v>54.598089</v>
+      </c>
+      <c r="I23">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J23">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.89089</v>
+      </c>
+      <c r="O23">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P23">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q23">
+        <v>17.53745216769</v>
+      </c>
+      <c r="R23">
+        <v>157.83706950921</v>
+      </c>
+      <c r="S23">
+        <v>0.001058515811608066</v>
+      </c>
+      <c r="T23">
+        <v>0.001077023096859912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.199363</v>
+      </c>
+      <c r="H24">
+        <v>54.598089</v>
+      </c>
+      <c r="I24">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J24">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>102.566826</v>
+      </c>
+      <c r="N24">
+        <v>307.700478</v>
+      </c>
+      <c r="O24">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P24">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q24">
+        <v>1866.650898131838</v>
+      </c>
+      <c r="R24">
+        <v>16799.85808318654</v>
+      </c>
+      <c r="S24">
+        <v>0.1126662796586379</v>
+      </c>
+      <c r="T24">
+        <v>0.1146361576264871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.199363</v>
+      </c>
+      <c r="H25">
+        <v>54.598089</v>
+      </c>
+      <c r="I25">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J25">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.8471995</v>
+      </c>
+      <c r="N25">
+        <v>1.694399</v>
+      </c>
+      <c r="O25">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P25">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q25">
+        <v>15.4184912339185</v>
+      </c>
+      <c r="R25">
+        <v>92.510947403511</v>
+      </c>
+      <c r="S25">
+        <v>0.0009306207427502752</v>
+      </c>
+      <c r="T25">
+        <v>0.0006312612580542112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.199363</v>
+      </c>
+      <c r="H26">
+        <v>54.598089</v>
+      </c>
+      <c r="I26">
+        <v>0.2100647219942044</v>
+      </c>
+      <c r="J26">
+        <v>0.2134219016233352</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N26">
+        <v>260.184174</v>
+      </c>
+      <c r="O26">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P26">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q26">
+        <v>1578.395409827054</v>
+      </c>
+      <c r="R26">
+        <v>14205.55868844349</v>
+      </c>
+      <c r="S26">
+        <v>0.0952679147629914</v>
+      </c>
+      <c r="T26">
+        <v>0.09693359651713426</v>
       </c>
     </row>
   </sheetData>
